--- a/src/test/resources/testData/MasterSheet_Batch6.xlsx
+++ b/src/test/resources/testData/MasterSheet_Batch6.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Contact_No</t>
   </si>
   <si>
-    <t>Rahul Ganjare</t>
-  </si>
-  <si>
     <t>Pune</t>
   </si>
   <si>
@@ -47,21 +44,12 @@
     <t>loginTest12346@test.com</t>
   </si>
   <si>
-    <t>Siddhant</t>
-  </si>
-  <si>
     <t>Swati</t>
   </si>
   <si>
     <t>Ruchita</t>
   </si>
   <si>
-    <t>loginTest12347@test.com</t>
-  </si>
-  <si>
-    <t>loginTest12345443@test.com</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
@@ -95,19 +83,49 @@
     <t>TC001_Create_an_Account5</t>
   </si>
   <si>
-    <t>login_Test_2</t>
-  </si>
-  <si>
-    <t>login_Test_3</t>
-  </si>
-  <si>
-    <t>Login_Test2</t>
-  </si>
-  <si>
-    <t>Login_Test3</t>
-  </si>
-  <si>
     <t>TC01_CreatAnAccountNewCustomer</t>
+  </si>
+  <si>
+    <t>TC02_VerfityAlreadyRegisterUser</t>
+  </si>
+  <si>
+    <t>TC03_CreateNewAndVerifyExistingUser</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>dadad@dad21</t>
   </si>
 </sst>
 </file>
@@ -153,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -189,12 +207,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -211,6 +240,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,25 +553,25 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -545,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -556,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -567,10 +601,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -580,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -591,10 +625,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -604,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,17 +651,19 @@
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,88 +674,122 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,192 +800,37 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>18</v>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D11" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D17" r:id="rId9"/>
-    <hyperlink ref="D21" r:id="rId10"/>
-    <hyperlink ref="D25" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/MasterSheet_Batch6.xlsx
+++ b/src/test/resources/testData/MasterSheet_Batch6.xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -617,7 +617,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -628,7 +628,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +641,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
